--- a/poi_we.xlsx
+++ b/poi_we.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10668" windowHeight="9060"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,13 +98,13 @@
     <t>Siphon West</t>
   </si>
   <si>
+    <t>[2200, 3100]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siphon East </t>
+  </si>
+  <si>
     <t>[2450, 2600]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siphon East </t>
-  </si>
-  <si>
-    <t>[2200, 3100]</t>
   </si>
   <si>
     <t>Launch Site</t>
@@ -814,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,7 +824,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1354,14 +1353,14 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="26.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="22.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="28.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="22.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="28.1083333333333" customWidth="1"/>
     <col min="5" max="5" width="19.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1397,7 +1396,7 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3"/>
